--- a/biology/Botanique/Clytini/Clytini.xlsx
+++ b/biology/Botanique/Clytini/Clytini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clytini forment une tribu d'insectes coléoptères cérambycidés répandus dans le monde entier.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clytini sont caractérisés par un aspect cylindrique, les cavités cotyloïdes antérieures arrondies et ouvertes en arrière, le prothorax sans épine latérale et les yeux à facettes fines.
 Beaucoup d'espèces ont des antennes courtes et certaines aussi des colorations aposématiques jaunes (ou rousses) et noires qui les rendent très semblables à certains hyménoptères aculéates.
@@ -543,10 +557,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clytini sont représentés dans le monde entier par plus de 60 genres et presque 1 500 espèces.
-En France, Belgique et Luxembourg, ils ne comprennent que les genres suivants[1],[2]:
+En France, Belgique et Luxembourg, ils ne comprennent que les genres suivants,:
 Chlorophorus Chevrolat, 1863
 Clytus Laicharting, 1784
 Cyrtoclytus Ganglbauer, 1881
@@ -554,7 +570,7 @@
 Plagionotus Mulsant, 1842
 Pseudosphegesthes Reitter, 1913
 Xylotrechus Chevrolat, 1860
-Le genre Neoclytus est présent aussi dans les Antilles françaises (Guadeloupe) avec l'espèce Neoclytus araneiformis (Olivier, 1795)[3].
+Le genre Neoclytus est présent aussi dans les Antilles françaises (Guadeloupe) avec l'espèce Neoclytus araneiformis (Olivier, 1795).
 </t>
         </is>
       </c>
